--- a/biology/Zoologie/Glaucopsyche/Glaucopsyche.xlsx
+++ b/biology/Zoologie/Glaucopsyche/Glaucopsyche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glaucopsyche est un genre holarctique de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Glaucopsyche a été décrit par l'entomologiste américain Samuel Hubbard Scudder en 1872. Son espèce type est Polyommatus lygdamus Doubleday, 1841[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Glaucopsyche a été décrit par l'entomologiste américain Samuel Hubbard Scudder en 1872. Son espèce type est Polyommatus lygdamus Doubleday, 1841.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces et distributions géographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre regroupe une quinzaine d'espèces, originaires des écozones paléarctique et néarctique[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre regroupe une quinzaine d'espèces, originaires des écozones paléarctique et néarctique :
 Glaucopsyche alexis (Poda, 1761) — l'Azuré des cytises — en Eurasie tempérée et au Maghreb.
 Glaucopsyche hazeri Karbalaye &amp; Harandi, 2007 — en Iran.
 Glaucopsyche aeruginosa (Staudinger, 1881) — en Chine.
@@ -559,7 +575,7 @@
 Glaucopsyche seminigra Howarth &amp; Povolný, 1976 — en Iran et en Afghanistan.
 Glaucopsyche lycormas (Butler, 1866) — en Extrême-Orient.
 Glaucopsyche argali (Elwes, 1899) — en Asie centrale.
-Glaucopsyche astraea (Freyer, [1851]) — en Asie Mineure et au Kurdistan.
+Glaucopsyche astraea (Freyer, ) — en Asie Mineure et au Kurdistan.
 			Glaucopsyche alexis
 			Glaucopsyche melanops
 			Glaucopsyche piasus
